--- a/data/获取数据/政策导向指标/非国企20年数据/301323.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301323.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>新莱福</t>
   </si>
   <si>
-    <t>301323</t>
-  </si>
-  <si>
     <t>2023-06-06</t>
   </si>
   <si>
@@ -362,6 +386,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>汪小明</t>
+  </si>
+  <si>
+    <t>广州易上投资股份有限公司;宁波磁诚企业管理合伙企业(有限合伙);宁波新莱福企业管理合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -719,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,16 +801,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301323</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>43.01</v>
@@ -807,4103 +870,4132 @@
         <v>73.39</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301323</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3">
+        <v>5135</v>
+      </c>
+      <c r="S3">
+        <v>48.94</v>
+      </c>
+      <c r="T3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3">
+        <v>53.44981262979722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>48.5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>48.16</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>51.51</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>47.5</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>115018</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>566046687</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>7.43</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-10.8</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-5.83</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>49.18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301323</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>47.66</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>45.69</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>52.05</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>45.56</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>110910</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>542418621</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>13.48</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-5.13</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-2.47</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>47.43</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>43.2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>42.57</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>44.51</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>42.02</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>101136</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>434292070</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>5.45</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-6.83</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-3.12</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>43.25</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>42.4</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>43.34</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>44.3</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>41.8</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>79131</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>339136845</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>5.87</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>1.81</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>0.77</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>33.84</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>42.8</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>43.09</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>44.09</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>41.91</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>72870</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>312050806</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>5.03</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-0.58</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-0.25</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>31.16</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301323</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>43.38</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>44.37</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>44.78</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>42.3</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>76531</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>334920211</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>5.76</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>2.97</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>1.28</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>32.73</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>43.82</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>41.49</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>44.24</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>41.38</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>78146</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>331615136</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>6.45</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-6.49</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-2.88</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>33.42</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301323</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>40.88</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>41.26</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>41.87</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>40.88</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>44381</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>183759562</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>2.39</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-0.55</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-0.23</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>18.98</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301323</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>41.22</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>41.6</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>42.27</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>41</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>38333</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>159355573</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>3.08</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.82</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.34</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>16.39</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>41.88</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>39.72</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>41.88</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>39.7</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>51946</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>208532881</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>5.24</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-4.52</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-1.88</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>22.21</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>39.48</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>38.13</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>39.95</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>38</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>33246</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>129725865</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>4.91</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-4</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-1.59</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>14.22</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>38</v>
-      </c>
-      <c r="E14">
-        <v>38.46</v>
-      </c>
-      <c r="F14">
-        <v>39.08</v>
-      </c>
-      <c r="G14">
-        <v>37.8</v>
-      </c>
-      <c r="H14">
-        <v>27528</v>
-      </c>
-      <c r="I14">
-        <v>106312503</v>
-      </c>
-      <c r="J14">
-        <v>3.36</v>
-      </c>
-      <c r="K14">
-        <v>0.87</v>
-      </c>
-      <c r="L14">
-        <v>0.33</v>
-      </c>
-      <c r="M14">
-        <v>11.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301323</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>38</v>
       </c>
       <c r="E15">
+        <v>38.46</v>
+      </c>
+      <c r="F15">
+        <v>39.08</v>
+      </c>
+      <c r="G15">
+        <v>37.8</v>
+      </c>
+      <c r="H15">
+        <v>27528</v>
+      </c>
+      <c r="I15">
+        <v>106312503</v>
+      </c>
+      <c r="J15">
+        <v>3.36</v>
+      </c>
+      <c r="K15">
+        <v>0.87</v>
+      </c>
+      <c r="L15">
+        <v>0.33</v>
+      </c>
+      <c r="M15">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
+      </c>
+      <c r="E16">
         <v>38.54</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>39.1</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>25437</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>97955407</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>2.86</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.21</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.08</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>10.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>38.3</v>
-      </c>
-      <c r="E16">
-        <v>38.82</v>
-      </c>
-      <c r="F16">
-        <v>39.24</v>
-      </c>
-      <c r="G16">
-        <v>38.29</v>
-      </c>
-      <c r="H16">
-        <v>26775</v>
-      </c>
-      <c r="I16">
-        <v>103936471</v>
-      </c>
-      <c r="J16">
-        <v>2.46</v>
-      </c>
-      <c r="K16">
-        <v>0.73</v>
-      </c>
-      <c r="L16">
-        <v>0.28</v>
-      </c>
-      <c r="M16">
-        <v>11.45</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301323</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>38.78</v>
+        <v>38.3</v>
       </c>
       <c r="E17">
-        <v>41.77</v>
+        <v>38.82</v>
       </c>
       <c r="F17">
-        <v>43.99</v>
+        <v>39.24</v>
       </c>
       <c r="G17">
-        <v>38.5</v>
+        <v>38.29</v>
       </c>
       <c r="H17">
-        <v>80333</v>
+        <v>26775</v>
       </c>
       <c r="I17">
-        <v>332756451</v>
+        <v>103936471</v>
       </c>
       <c r="J17">
-        <v>14.14</v>
+        <v>2.46</v>
       </c>
       <c r="K17">
-        <v>7.6</v>
+        <v>0.73</v>
       </c>
       <c r="L17">
-        <v>2.95</v>
+        <v>0.28</v>
       </c>
       <c r="M17">
-        <v>34.35</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301323</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>41.02</v>
+        <v>38.78</v>
       </c>
       <c r="E18">
-        <v>43.25</v>
+        <v>41.77</v>
       </c>
       <c r="F18">
-        <v>44.42</v>
+        <v>43.99</v>
       </c>
       <c r="G18">
-        <v>40.98</v>
+        <v>38.5</v>
       </c>
       <c r="H18">
-        <v>78245</v>
+        <v>80333</v>
       </c>
       <c r="I18">
-        <v>335093469</v>
+        <v>332756451</v>
       </c>
       <c r="J18">
-        <v>8.24</v>
+        <v>14.14</v>
       </c>
       <c r="K18">
-        <v>3.54</v>
+        <v>7.6</v>
       </c>
       <c r="L18">
-        <v>1.48</v>
+        <v>2.95</v>
       </c>
       <c r="M18">
-        <v>33.46</v>
+        <v>34.35</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301323</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
+        <v>41.02</v>
+      </c>
+      <c r="E19">
         <v>43.25</v>
       </c>
-      <c r="E19">
-        <v>42.4</v>
-      </c>
       <c r="F19">
-        <v>44.4</v>
+        <v>44.42</v>
       </c>
       <c r="G19">
-        <v>42.11</v>
+        <v>40.98</v>
       </c>
       <c r="H19">
-        <v>39008</v>
+        <v>78245</v>
       </c>
       <c r="I19">
-        <v>168120289</v>
+        <v>335093469</v>
       </c>
       <c r="J19">
-        <v>5.29</v>
+        <v>8.24</v>
       </c>
       <c r="K19">
-        <v>-1.97</v>
+        <v>3.54</v>
       </c>
       <c r="L19">
-        <v>-0.85</v>
+        <v>1.48</v>
       </c>
       <c r="M19">
-        <v>16.68</v>
+        <v>33.46</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301323</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>42.91</v>
+        <v>43.25</v>
       </c>
       <c r="E20">
-        <v>42.99</v>
+        <v>42.4</v>
       </c>
       <c r="F20">
-        <v>44.19</v>
+        <v>44.4</v>
       </c>
       <c r="G20">
-        <v>42.52</v>
+        <v>42.11</v>
       </c>
       <c r="H20">
-        <v>29265</v>
+        <v>39008</v>
       </c>
       <c r="I20">
-        <v>126432491</v>
+        <v>168120289</v>
       </c>
       <c r="J20">
-        <v>3.94</v>
+        <v>5.29</v>
       </c>
       <c r="K20">
-        <v>1.39</v>
+        <v>-1.97</v>
       </c>
       <c r="L20">
-        <v>0.59</v>
+        <v>-0.85</v>
       </c>
       <c r="M20">
-        <v>12.51</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301323</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>42.82</v>
+        <v>42.91</v>
       </c>
       <c r="E21">
-        <v>44.71</v>
+        <v>42.99</v>
       </c>
       <c r="F21">
-        <v>45.99</v>
+        <v>44.19</v>
       </c>
       <c r="G21">
-        <v>42.61</v>
+        <v>42.52</v>
       </c>
       <c r="H21">
-        <v>57307</v>
+        <v>29265</v>
       </c>
       <c r="I21">
-        <v>255443842</v>
+        <v>126432491</v>
       </c>
       <c r="J21">
-        <v>7.86</v>
+        <v>3.94</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>1.39</v>
       </c>
       <c r="L21">
-        <v>1.72</v>
+        <v>0.59</v>
       </c>
       <c r="M21">
-        <v>24.51</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301323</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>44.72</v>
+        <v>42.82</v>
       </c>
       <c r="E22">
-        <v>42.85</v>
+        <v>44.71</v>
       </c>
       <c r="F22">
-        <v>45</v>
+        <v>45.99</v>
       </c>
       <c r="G22">
-        <v>41.71</v>
+        <v>42.61</v>
       </c>
       <c r="H22">
-        <v>45420</v>
+        <v>57307</v>
       </c>
       <c r="I22">
-        <v>195735917</v>
+        <v>255443842</v>
       </c>
       <c r="J22">
-        <v>7.36</v>
+        <v>7.86</v>
       </c>
       <c r="K22">
-        <v>-4.16</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>-1.86</v>
+        <v>1.72</v>
       </c>
       <c r="M22">
-        <v>19.42</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301323</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>42.65</v>
+        <v>44.72</v>
       </c>
       <c r="E23">
-        <v>45.09</v>
+        <v>42.85</v>
       </c>
       <c r="F23">
-        <v>45.88</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>42</v>
+        <v>41.71</v>
       </c>
       <c r="H23">
-        <v>59816</v>
+        <v>45420</v>
       </c>
       <c r="I23">
-        <v>265157813</v>
+        <v>195735917</v>
       </c>
       <c r="J23">
-        <v>9.050000000000001</v>
+        <v>7.36</v>
       </c>
       <c r="K23">
-        <v>5.23</v>
+        <v>-4.16</v>
       </c>
       <c r="L23">
-        <v>2.24</v>
+        <v>-1.86</v>
       </c>
       <c r="M23">
-        <v>25.58</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301323</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>44.8</v>
+        <v>42.65</v>
       </c>
       <c r="E24">
-        <v>43.7</v>
+        <v>45.09</v>
       </c>
       <c r="F24">
-        <v>46.3</v>
+        <v>45.88</v>
       </c>
       <c r="G24">
-        <v>43.3</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>47836</v>
+        <v>59816</v>
       </c>
       <c r="I24">
-        <v>211991273</v>
+        <v>265157813</v>
       </c>
       <c r="J24">
-        <v>6.65</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K24">
-        <v>-3.08</v>
+        <v>5.23</v>
       </c>
       <c r="L24">
-        <v>-1.39</v>
+        <v>2.24</v>
       </c>
       <c r="M24">
-        <v>20.46</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301323</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>43.5</v>
+        <v>44.8</v>
       </c>
       <c r="E25">
-        <v>44.81</v>
+        <v>43.7</v>
       </c>
       <c r="F25">
-        <v>44.94</v>
+        <v>46.3</v>
       </c>
       <c r="G25">
-        <v>43.47</v>
+        <v>43.3</v>
       </c>
       <c r="H25">
-        <v>35471</v>
+        <v>47836</v>
       </c>
       <c r="I25">
-        <v>156764461</v>
+        <v>211991273</v>
       </c>
       <c r="J25">
-        <v>3.36</v>
+        <v>6.65</v>
       </c>
       <c r="K25">
-        <v>2.54</v>
+        <v>-3.08</v>
       </c>
       <c r="L25">
-        <v>1.11</v>
+        <v>-1.39</v>
       </c>
       <c r="M25">
-        <v>15.17</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301323</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>44.51</v>
+        <v>43.5</v>
       </c>
       <c r="E26">
-        <v>45.61</v>
+        <v>44.81</v>
       </c>
       <c r="F26">
-        <v>46.38</v>
+        <v>44.94</v>
       </c>
       <c r="G26">
-        <v>43.88</v>
+        <v>43.47</v>
       </c>
       <c r="H26">
-        <v>66597</v>
+        <v>35471</v>
       </c>
       <c r="I26">
-        <v>300609489</v>
+        <v>156764461</v>
       </c>
       <c r="J26">
-        <v>5.58</v>
+        <v>3.36</v>
       </c>
       <c r="K26">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="L26">
-        <v>0.8</v>
+        <v>1.11</v>
       </c>
       <c r="M26">
-        <v>28.48</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301323</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>45.6</v>
+        <v>44.51</v>
       </c>
       <c r="E27">
-        <v>46.47</v>
+        <v>45.61</v>
       </c>
       <c r="F27">
-        <v>48.47</v>
+        <v>46.38</v>
       </c>
       <c r="G27">
-        <v>44.1</v>
+        <v>43.88</v>
       </c>
       <c r="H27">
-        <v>81687</v>
+        <v>66597</v>
       </c>
       <c r="I27">
-        <v>375903868</v>
+        <v>300609489</v>
       </c>
       <c r="J27">
-        <v>9.58</v>
+        <v>5.58</v>
       </c>
       <c r="K27">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="L27">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="M27">
-        <v>34.93</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301323</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>46.02</v>
+        <v>45.6</v>
       </c>
       <c r="E28">
-        <v>55.76</v>
+        <v>46.47</v>
       </c>
       <c r="F28">
-        <v>55.76</v>
+        <v>48.47</v>
       </c>
       <c r="G28">
-        <v>45.61</v>
+        <v>44.1</v>
       </c>
       <c r="H28">
-        <v>153649</v>
+        <v>81687</v>
       </c>
       <c r="I28">
-        <v>804692745</v>
+        <v>375903868</v>
       </c>
       <c r="J28">
-        <v>21.84</v>
+        <v>9.58</v>
       </c>
       <c r="K28">
-        <v>19.99</v>
+        <v>1.89</v>
       </c>
       <c r="L28">
-        <v>9.289999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="M28">
-        <v>65.7</v>
+        <v>34.93</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301323</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>54.81</v>
+        <v>46.02</v>
       </c>
       <c r="E29">
-        <v>49.78</v>
+        <v>55.76</v>
       </c>
       <c r="F29">
-        <v>55.6</v>
+        <v>55.76</v>
       </c>
       <c r="G29">
-        <v>48.6</v>
+        <v>45.61</v>
       </c>
       <c r="H29">
-        <v>128760</v>
+        <v>153649</v>
       </c>
       <c r="I29">
-        <v>662961411</v>
+        <v>804692745</v>
       </c>
       <c r="J29">
-        <v>12.55</v>
+        <v>21.84</v>
       </c>
       <c r="K29">
-        <v>-10.72</v>
+        <v>19.99</v>
       </c>
       <c r="L29">
-        <v>-5.98</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="M29">
-        <v>55.06</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301323</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>48.65</v>
+        <v>54.81</v>
       </c>
       <c r="E30">
-        <v>47.43</v>
+        <v>49.78</v>
       </c>
       <c r="F30">
-        <v>49.33</v>
+        <v>55.6</v>
       </c>
       <c r="G30">
-        <v>46.33</v>
+        <v>48.6</v>
       </c>
       <c r="H30">
-        <v>87985</v>
+        <v>128760</v>
       </c>
       <c r="I30">
-        <v>417702747</v>
+        <v>662961411</v>
       </c>
       <c r="J30">
-        <v>6.03</v>
+        <v>12.55</v>
       </c>
       <c r="K30">
-        <v>-4.72</v>
+        <v>-10.72</v>
       </c>
       <c r="L30">
-        <v>-2.35</v>
+        <v>-5.98</v>
       </c>
       <c r="M30">
-        <v>37.62</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301323</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>48.65</v>
       </c>
       <c r="E31">
-        <v>50.26</v>
+        <v>47.43</v>
       </c>
       <c r="F31">
-        <v>51.88</v>
+        <v>49.33</v>
       </c>
       <c r="G31">
-        <v>45.86</v>
+        <v>46.33</v>
       </c>
       <c r="H31">
-        <v>100426</v>
+        <v>87985</v>
       </c>
       <c r="I31">
-        <v>493541417</v>
+        <v>417702747</v>
       </c>
       <c r="J31">
-        <v>12.69</v>
+        <v>6.03</v>
       </c>
       <c r="K31">
-        <v>5.97</v>
+        <v>-4.72</v>
       </c>
       <c r="L31">
-        <v>2.83</v>
+        <v>-2.35</v>
       </c>
       <c r="M31">
-        <v>42.94</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301323</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>50.27</v>
+        <v>47</v>
       </c>
       <c r="E32">
-        <v>48.22</v>
+        <v>50.26</v>
       </c>
       <c r="F32">
-        <v>52.36</v>
+        <v>51.88</v>
       </c>
       <c r="G32">
-        <v>48.22</v>
+        <v>45.86</v>
       </c>
       <c r="H32">
-        <v>80270</v>
+        <v>100426</v>
       </c>
       <c r="I32">
-        <v>404077665</v>
+        <v>493541417</v>
       </c>
       <c r="J32">
-        <v>8.24</v>
+        <v>12.69</v>
       </c>
       <c r="K32">
-        <v>-4.06</v>
+        <v>5.97</v>
       </c>
       <c r="L32">
-        <v>-2.04</v>
+        <v>2.83</v>
       </c>
       <c r="M32">
-        <v>34.32</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301323</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>47.53</v>
+        <v>50.27</v>
       </c>
       <c r="E33">
-        <v>48</v>
+        <v>48.22</v>
       </c>
       <c r="F33">
-        <v>50.6</v>
+        <v>52.36</v>
       </c>
       <c r="G33">
-        <v>46.79</v>
+        <v>48.22</v>
       </c>
       <c r="H33">
-        <v>66454</v>
+        <v>80270</v>
       </c>
       <c r="I33">
-        <v>324297685</v>
+        <v>404077665</v>
       </c>
       <c r="J33">
-        <v>7.9</v>
+        <v>8.24</v>
       </c>
       <c r="K33">
-        <v>-0.46</v>
+        <v>-4.06</v>
       </c>
       <c r="L33">
-        <v>-0.22</v>
+        <v>-2.04</v>
       </c>
       <c r="M33">
-        <v>28.42</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301323</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>47.05</v>
+        <v>47.53</v>
       </c>
       <c r="E34">
-        <v>47.31</v>
+        <v>48</v>
       </c>
       <c r="F34">
-        <v>48.78</v>
+        <v>50.6</v>
       </c>
       <c r="G34">
-        <v>46.02</v>
+        <v>46.79</v>
       </c>
       <c r="H34">
-        <v>46303</v>
+        <v>66454</v>
       </c>
       <c r="I34">
-        <v>219699882</v>
+        <v>324297685</v>
       </c>
       <c r="J34">
-        <v>5.75</v>
+        <v>7.9</v>
       </c>
       <c r="K34">
-        <v>-1.44</v>
+        <v>-0.46</v>
       </c>
       <c r="L34">
-        <v>-0.6899999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="M34">
-        <v>19.8</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301323</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>47.26</v>
+        <v>47.05</v>
       </c>
       <c r="E35">
-        <v>45.36</v>
+        <v>47.31</v>
       </c>
       <c r="F35">
-        <v>48</v>
+        <v>48.78</v>
       </c>
       <c r="G35">
-        <v>45.3</v>
+        <v>46.02</v>
       </c>
       <c r="H35">
-        <v>56060</v>
+        <v>46303</v>
       </c>
       <c r="I35">
-        <v>261206777</v>
+        <v>219699882</v>
       </c>
       <c r="J35">
-        <v>5.71</v>
+        <v>5.75</v>
       </c>
       <c r="K35">
-        <v>-4.12</v>
+        <v>-1.44</v>
       </c>
       <c r="L35">
-        <v>-1.95</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="M35">
-        <v>23.97</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301323</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>44.91</v>
+        <v>47.26</v>
       </c>
       <c r="E36">
-        <v>42.98</v>
+        <v>45.36</v>
       </c>
       <c r="F36">
+        <v>48</v>
+      </c>
+      <c r="G36">
         <v>45.3</v>
       </c>
-      <c r="G36">
-        <v>42.6</v>
-      </c>
       <c r="H36">
-        <v>55663</v>
+        <v>56060</v>
       </c>
       <c r="I36">
-        <v>243760420</v>
+        <v>261206777</v>
       </c>
       <c r="J36">
-        <v>5.95</v>
+        <v>5.71</v>
       </c>
       <c r="K36">
-        <v>-5.25</v>
+        <v>-4.12</v>
       </c>
       <c r="L36">
-        <v>-2.38</v>
+        <v>-1.95</v>
       </c>
       <c r="M36">
-        <v>23.8</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>301323</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
+        <v>44.91</v>
+      </c>
+      <c r="E37">
+        <v>42.98</v>
+      </c>
+      <c r="F37">
+        <v>45.3</v>
+      </c>
+      <c r="G37">
         <v>42.6</v>
       </c>
-      <c r="E37">
-        <v>42.41</v>
-      </c>
-      <c r="F37">
-        <v>43.23</v>
-      </c>
-      <c r="G37">
-        <v>42.33</v>
-      </c>
       <c r="H37">
-        <v>25619</v>
+        <v>55663</v>
       </c>
       <c r="I37">
-        <v>109575210</v>
+        <v>243760420</v>
       </c>
       <c r="J37">
-        <v>2.09</v>
+        <v>5.95</v>
       </c>
       <c r="K37">
-        <v>-1.33</v>
+        <v>-5.25</v>
       </c>
       <c r="L37">
-        <v>-0.57</v>
+        <v>-2.38</v>
       </c>
       <c r="M37">
-        <v>10.96</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>301323</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>42.37</v>
+        <v>42.6</v>
       </c>
       <c r="E38">
-        <v>42.62</v>
+        <v>42.41</v>
       </c>
       <c r="F38">
-        <v>43.15</v>
+        <v>43.23</v>
       </c>
       <c r="G38">
-        <v>41.51</v>
+        <v>42.33</v>
       </c>
       <c r="H38">
-        <v>26128</v>
+        <v>25619</v>
       </c>
       <c r="I38">
-        <v>110866860</v>
+        <v>109575210</v>
       </c>
       <c r="J38">
-        <v>3.87</v>
+        <v>2.09</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>-1.33</v>
       </c>
       <c r="L38">
-        <v>0.21</v>
+        <v>-0.57</v>
       </c>
       <c r="M38">
-        <v>11.17</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>301323</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>42.6</v>
+        <v>42.37</v>
       </c>
       <c r="E39">
-        <v>42.11</v>
+        <v>42.62</v>
       </c>
       <c r="F39">
-        <v>43.14</v>
+        <v>43.15</v>
       </c>
       <c r="G39">
-        <v>41.92</v>
+        <v>41.51</v>
       </c>
       <c r="H39">
-        <v>25390</v>
+        <v>26128</v>
       </c>
       <c r="I39">
-        <v>107845602</v>
+        <v>110866860</v>
       </c>
       <c r="J39">
-        <v>2.86</v>
+        <v>3.87</v>
       </c>
       <c r="K39">
-        <v>-1.2</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>-0.51</v>
+        <v>0.21</v>
       </c>
       <c r="M39">
-        <v>10.86</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>301323</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>41.71</v>
+        <v>42.6</v>
       </c>
       <c r="E40">
-        <v>43.04</v>
+        <v>42.11</v>
       </c>
       <c r="F40">
-        <v>43.77</v>
+        <v>43.14</v>
       </c>
       <c r="G40">
-        <v>40.89</v>
+        <v>41.92</v>
       </c>
       <c r="H40">
-        <v>52383</v>
+        <v>25390</v>
       </c>
       <c r="I40">
-        <v>222550342</v>
+        <v>107845602</v>
       </c>
       <c r="J40">
-        <v>6.84</v>
+        <v>2.86</v>
       </c>
       <c r="K40">
-        <v>2.21</v>
+        <v>-1.2</v>
       </c>
       <c r="L40">
-        <v>0.93</v>
+        <v>-0.51</v>
       </c>
       <c r="M40">
-        <v>22.4</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>301323</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>43</v>
+        <v>41.71</v>
       </c>
       <c r="E41">
-        <v>41.45</v>
+        <v>43.04</v>
       </c>
       <c r="F41">
-        <v>44.35</v>
+        <v>43.77</v>
       </c>
       <c r="G41">
-        <v>41.36</v>
+        <v>40.89</v>
       </c>
       <c r="H41">
-        <v>50192</v>
+        <v>52383</v>
       </c>
       <c r="I41">
-        <v>215467726</v>
+        <v>222550342</v>
       </c>
       <c r="J41">
-        <v>6.95</v>
+        <v>6.84</v>
       </c>
       <c r="K41">
-        <v>-3.69</v>
+        <v>2.21</v>
       </c>
       <c r="L41">
-        <v>-1.59</v>
+        <v>0.93</v>
       </c>
       <c r="M41">
-        <v>21.46</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>301323</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>40.58</v>
+        <v>43</v>
       </c>
       <c r="E42">
-        <v>42.51</v>
+        <v>41.45</v>
       </c>
       <c r="F42">
-        <v>43.13</v>
+        <v>44.35</v>
       </c>
       <c r="G42">
-        <v>39.88</v>
+        <v>41.36</v>
       </c>
       <c r="H42">
-        <v>41830</v>
+        <v>50192</v>
       </c>
       <c r="I42">
-        <v>174273434</v>
+        <v>215467726</v>
       </c>
       <c r="J42">
-        <v>7.84</v>
+        <v>6.95</v>
       </c>
       <c r="K42">
-        <v>2.56</v>
+        <v>-3.69</v>
       </c>
       <c r="L42">
-        <v>1.06</v>
+        <v>-1.59</v>
       </c>
       <c r="M42">
-        <v>17.89</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>301323</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>42.27</v>
+        <v>40.58</v>
       </c>
       <c r="E43">
-        <v>42.05</v>
+        <v>42.51</v>
       </c>
       <c r="F43">
-        <v>42.64</v>
+        <v>43.13</v>
       </c>
       <c r="G43">
-        <v>41.62</v>
+        <v>39.88</v>
       </c>
       <c r="H43">
-        <v>26567</v>
+        <v>41830</v>
       </c>
       <c r="I43">
-        <v>111609946</v>
+        <v>174273434</v>
       </c>
       <c r="J43">
-        <v>2.4</v>
+        <v>7.84</v>
       </c>
       <c r="K43">
-        <v>-1.08</v>
+        <v>2.56</v>
       </c>
       <c r="L43">
-        <v>-0.46</v>
+        <v>1.06</v>
       </c>
       <c r="M43">
-        <v>11.36</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>301323</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>41.98</v>
+        <v>42.27</v>
       </c>
       <c r="E44">
-        <v>42.53</v>
+        <v>42.05</v>
       </c>
       <c r="F44">
-        <v>42.98</v>
+        <v>42.64</v>
       </c>
       <c r="G44">
-        <v>41.21</v>
+        <v>41.62</v>
       </c>
       <c r="H44">
-        <v>30498</v>
+        <v>26567</v>
       </c>
       <c r="I44">
-        <v>128720525</v>
+        <v>111609946</v>
       </c>
       <c r="J44">
-        <v>4.21</v>
+        <v>2.4</v>
       </c>
       <c r="K44">
-        <v>1.14</v>
+        <v>-1.08</v>
       </c>
       <c r="L44">
-        <v>0.48</v>
+        <v>-0.46</v>
       </c>
       <c r="M44">
-        <v>13.04</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>301323</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>42.08</v>
+        <v>41.98</v>
       </c>
       <c r="E45">
-        <v>43.84</v>
+        <v>42.53</v>
       </c>
       <c r="F45">
-        <v>44.3</v>
+        <v>42.98</v>
       </c>
       <c r="G45">
-        <v>41.79</v>
+        <v>41.21</v>
       </c>
       <c r="H45">
-        <v>48357</v>
+        <v>30498</v>
       </c>
       <c r="I45">
-        <v>209171943</v>
+        <v>128720525</v>
       </c>
       <c r="J45">
-        <v>5.9</v>
+        <v>4.21</v>
       </c>
       <c r="K45">
-        <v>3.08</v>
+        <v>1.14</v>
       </c>
       <c r="L45">
-        <v>1.31</v>
+        <v>0.48</v>
       </c>
       <c r="M45">
-        <v>20.68</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>301323</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>43.43</v>
+        <v>42.08</v>
       </c>
       <c r="E46">
-        <v>43.16</v>
+        <v>43.84</v>
       </c>
       <c r="F46">
-        <v>43.5</v>
+        <v>44.3</v>
       </c>
       <c r="G46">
-        <v>42.02</v>
+        <v>41.79</v>
       </c>
       <c r="H46">
-        <v>32974</v>
+        <v>48357</v>
       </c>
       <c r="I46">
-        <v>141188319</v>
+        <v>209171943</v>
       </c>
       <c r="J46">
-        <v>3.38</v>
+        <v>5.9</v>
       </c>
       <c r="K46">
-        <v>-1.55</v>
+        <v>3.08</v>
       </c>
       <c r="L46">
-        <v>-0.68</v>
+        <v>1.31</v>
       </c>
       <c r="M46">
-        <v>14.1</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>301323</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>42.62</v>
+        <v>43.43</v>
       </c>
       <c r="E47">
-        <v>43.2</v>
+        <v>43.16</v>
       </c>
       <c r="F47">
-        <v>44.26</v>
+        <v>43.5</v>
       </c>
       <c r="G47">
-        <v>42.6</v>
+        <v>42.02</v>
       </c>
       <c r="H47">
-        <v>35662</v>
+        <v>32974</v>
       </c>
       <c r="I47">
-        <v>155272383</v>
+        <v>141188319</v>
       </c>
       <c r="J47">
-        <v>3.85</v>
+        <v>3.38</v>
       </c>
       <c r="K47">
-        <v>0.09</v>
+        <v>-1.55</v>
       </c>
       <c r="L47">
-        <v>0.04</v>
+        <v>-0.68</v>
       </c>
       <c r="M47">
-        <v>15.25</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>301323</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>42.9</v>
+        <v>42.62</v>
       </c>
       <c r="E48">
-        <v>43.31</v>
+        <v>43.2</v>
       </c>
       <c r="F48">
-        <v>43.8</v>
+        <v>44.26</v>
       </c>
       <c r="G48">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="H48">
-        <v>30362</v>
+        <v>35662</v>
       </c>
       <c r="I48">
-        <v>131497897</v>
+        <v>155272383</v>
       </c>
       <c r="J48">
-        <v>2.31</v>
+        <v>3.85</v>
       </c>
       <c r="K48">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="L48">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="M48">
-        <v>12.98</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>301323</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>42.85</v>
+        <v>42.9</v>
       </c>
       <c r="E49">
-        <v>43.33</v>
+        <v>43.31</v>
       </c>
       <c r="F49">
-        <v>43.39</v>
+        <v>43.8</v>
       </c>
       <c r="G49">
-        <v>41.53</v>
+        <v>42.8</v>
       </c>
       <c r="H49">
-        <v>27663</v>
+        <v>30362</v>
       </c>
       <c r="I49">
-        <v>118118733</v>
+        <v>131497897</v>
       </c>
       <c r="J49">
-        <v>4.29</v>
+        <v>2.31</v>
       </c>
       <c r="K49">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="L49">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="M49">
-        <v>11.83</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>301323</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>43.1</v>
+        <v>42.85</v>
       </c>
       <c r="E50">
-        <v>44.44</v>
+        <v>43.33</v>
       </c>
       <c r="F50">
-        <v>44.44</v>
+        <v>43.39</v>
       </c>
       <c r="G50">
-        <v>43.1</v>
+        <v>41.53</v>
       </c>
       <c r="H50">
-        <v>41143</v>
+        <v>27663</v>
       </c>
       <c r="I50">
-        <v>180600130</v>
+        <v>118118733</v>
       </c>
       <c r="J50">
-        <v>3.09</v>
+        <v>4.29</v>
       </c>
       <c r="K50">
-        <v>2.56</v>
+        <v>0.05</v>
       </c>
       <c r="L50">
-        <v>1.11</v>
+        <v>0.02</v>
       </c>
       <c r="M50">
-        <v>17.59</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>301323</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>44.9</v>
+        <v>43.1</v>
       </c>
       <c r="E51">
-        <v>43.42</v>
+        <v>44.44</v>
       </c>
       <c r="F51">
-        <v>46.88</v>
+        <v>44.44</v>
       </c>
       <c r="G51">
-        <v>43.34</v>
+        <v>43.1</v>
       </c>
       <c r="H51">
-        <v>55972</v>
+        <v>41143</v>
       </c>
       <c r="I51">
-        <v>253033516</v>
+        <v>180600130</v>
       </c>
       <c r="J51">
-        <v>7.97</v>
+        <v>3.09</v>
       </c>
       <c r="K51">
-        <v>-2.3</v>
+        <v>2.56</v>
       </c>
       <c r="L51">
-        <v>-1.02</v>
+        <v>1.11</v>
       </c>
       <c r="M51">
-        <v>23.93</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>301323</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>44.9</v>
       </c>
       <c r="E52">
-        <v>42.68</v>
+        <v>43.42</v>
       </c>
       <c r="F52">
-        <v>43</v>
+        <v>46.88</v>
       </c>
       <c r="G52">
-        <v>41.39</v>
+        <v>43.34</v>
       </c>
       <c r="H52">
-        <v>39936</v>
+        <v>55972</v>
       </c>
       <c r="I52">
-        <v>168179444</v>
+        <v>253033516</v>
       </c>
       <c r="J52">
-        <v>3.71</v>
+        <v>7.97</v>
       </c>
       <c r="K52">
-        <v>-1.7</v>
+        <v>-2.3</v>
       </c>
       <c r="L52">
-        <v>-0.74</v>
+        <v>-1.02</v>
       </c>
       <c r="M52">
-        <v>17.08</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>301323</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>42.44</v>
+        <v>43</v>
       </c>
       <c r="E53">
-        <v>43.64</v>
+        <v>42.68</v>
       </c>
       <c r="F53">
-        <v>44.86</v>
+        <v>43</v>
       </c>
       <c r="G53">
-        <v>42.35</v>
+        <v>41.39</v>
       </c>
       <c r="H53">
-        <v>44511</v>
+        <v>39936</v>
       </c>
       <c r="I53">
-        <v>194555554</v>
+        <v>168179444</v>
       </c>
       <c r="J53">
-        <v>5.88</v>
+        <v>3.71</v>
       </c>
       <c r="K53">
-        <v>2.25</v>
+        <v>-1.7</v>
       </c>
       <c r="L53">
-        <v>0.96</v>
+        <v>-0.74</v>
       </c>
       <c r="M53">
-        <v>19.03</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>301323</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>44.06</v>
+        <v>42.44</v>
       </c>
       <c r="E54">
-        <v>43.89</v>
+        <v>43.64</v>
       </c>
       <c r="F54">
-        <v>45</v>
+        <v>44.86</v>
       </c>
       <c r="G54">
-        <v>43.82</v>
+        <v>42.35</v>
       </c>
       <c r="H54">
-        <v>34461</v>
+        <v>44511</v>
       </c>
       <c r="I54">
-        <v>152782080</v>
+        <v>194555554</v>
       </c>
       <c r="J54">
-        <v>2.7</v>
+        <v>5.88</v>
       </c>
       <c r="K54">
-        <v>0.57</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>0.25</v>
+        <v>0.96</v>
       </c>
       <c r="M54">
-        <v>14.74</v>
+        <v>19.03</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>301323</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>44.01</v>
+        <v>44.06</v>
       </c>
       <c r="E55">
-        <v>45.57</v>
+        <v>43.89</v>
       </c>
       <c r="F55">
-        <v>46.84</v>
+        <v>45</v>
       </c>
       <c r="G55">
-        <v>43.62</v>
+        <v>43.82</v>
       </c>
       <c r="H55">
-        <v>60179</v>
+        <v>34461</v>
       </c>
       <c r="I55">
-        <v>272610997</v>
+        <v>152782080</v>
       </c>
       <c r="J55">
-        <v>7.34</v>
+        <v>2.7</v>
       </c>
       <c r="K55">
-        <v>3.83</v>
+        <v>0.57</v>
       </c>
       <c r="L55">
-        <v>1.68</v>
+        <v>0.25</v>
       </c>
       <c r="M55">
-        <v>25.73</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>301323</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>45.04</v>
+        <v>44.01</v>
       </c>
       <c r="E56">
-        <v>48.7</v>
+        <v>45.57</v>
       </c>
       <c r="F56">
-        <v>53.78</v>
+        <v>46.84</v>
       </c>
       <c r="G56">
-        <v>44.32</v>
+        <v>43.62</v>
       </c>
       <c r="H56">
-        <v>104624</v>
+        <v>60179</v>
       </c>
       <c r="I56">
-        <v>505404276</v>
+        <v>272610997</v>
       </c>
       <c r="J56">
-        <v>20.76</v>
+        <v>7.34</v>
       </c>
       <c r="K56">
-        <v>6.87</v>
+        <v>3.83</v>
       </c>
       <c r="L56">
-        <v>3.13</v>
+        <v>1.68</v>
       </c>
       <c r="M56">
-        <v>44.74</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>301323</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>46.11</v>
+        <v>45.04</v>
       </c>
       <c r="E57">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="F57">
-        <v>50.7</v>
+        <v>53.78</v>
       </c>
       <c r="G57">
-        <v>43.86</v>
+        <v>44.32</v>
       </c>
       <c r="H57">
-        <v>99070</v>
+        <v>104624</v>
       </c>
       <c r="I57">
-        <v>463233638</v>
+        <v>505404276</v>
       </c>
       <c r="J57">
-        <v>14.05</v>
+        <v>20.76</v>
       </c>
       <c r="K57">
-        <v>0.62</v>
+        <v>6.87</v>
       </c>
       <c r="L57">
-        <v>0.3</v>
+        <v>3.13</v>
       </c>
       <c r="M57">
-        <v>42.36</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>301323</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>47.5</v>
+        <v>46.11</v>
       </c>
       <c r="E58">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F58">
-        <v>55</v>
+        <v>50.7</v>
       </c>
       <c r="G58">
-        <v>47.13</v>
+        <v>43.86</v>
       </c>
       <c r="H58">
-        <v>120982</v>
+        <v>99070</v>
       </c>
       <c r="I58">
-        <v>621785392</v>
+        <v>463233638</v>
       </c>
       <c r="J58">
-        <v>16.06</v>
+        <v>14.05</v>
       </c>
       <c r="K58">
-        <v>-0.2</v>
+        <v>0.62</v>
       </c>
       <c r="L58">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M58">
-        <v>51.73</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>301323</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>49.01</v>
+        <v>47.5</v>
       </c>
       <c r="E59">
-        <v>53.27</v>
+        <v>48.9</v>
       </c>
       <c r="F59">
-        <v>54.73</v>
+        <v>55</v>
       </c>
       <c r="G59">
-        <v>45.88</v>
+        <v>47.13</v>
       </c>
       <c r="H59">
-        <v>125396</v>
+        <v>120982</v>
       </c>
       <c r="I59">
-        <v>638279230</v>
+        <v>621785392</v>
       </c>
       <c r="J59">
-        <v>18.1</v>
+        <v>16.06</v>
       </c>
       <c r="K59">
-        <v>8.94</v>
+        <v>-0.2</v>
       </c>
       <c r="L59">
-        <v>4.37</v>
+        <v>-0.1</v>
       </c>
       <c r="M59">
-        <v>53.62</v>
+        <v>51.73</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>301323</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>51.33</v>
+        <v>49.01</v>
       </c>
       <c r="E60">
-        <v>51.48</v>
+        <v>53.27</v>
       </c>
       <c r="F60">
-        <v>52.33</v>
+        <v>54.73</v>
       </c>
       <c r="G60">
-        <v>48.87</v>
+        <v>45.88</v>
       </c>
       <c r="H60">
-        <v>92860</v>
+        <v>125396</v>
       </c>
       <c r="I60">
-        <v>471721343</v>
+        <v>638279230</v>
       </c>
       <c r="J60">
-        <v>6.5</v>
+        <v>18.1</v>
       </c>
       <c r="K60">
-        <v>-3.36</v>
+        <v>8.94</v>
       </c>
       <c r="L60">
-        <v>-1.79</v>
+        <v>4.37</v>
       </c>
       <c r="M60">
-        <v>39.71</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>301323</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>50.39</v>
+        <v>51.33</v>
       </c>
       <c r="E61">
-        <v>48.6</v>
+        <v>51.48</v>
       </c>
       <c r="F61">
-        <v>53.35</v>
+        <v>52.33</v>
       </c>
       <c r="G61">
-        <v>48.31</v>
+        <v>48.87</v>
       </c>
       <c r="H61">
-        <v>84944</v>
+        <v>92860</v>
       </c>
       <c r="I61">
-        <v>427339049</v>
+        <v>471721343</v>
       </c>
       <c r="J61">
-        <v>9.789999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="K61">
-        <v>-5.59</v>
+        <v>-3.36</v>
       </c>
       <c r="L61">
-        <v>-2.88</v>
+        <v>-1.79</v>
       </c>
       <c r="M61">
-        <v>36.32</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>301323</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>47.8</v>
+        <v>50.39</v>
       </c>
       <c r="E62">
-        <v>46.71</v>
+        <v>48.6</v>
       </c>
       <c r="F62">
-        <v>48.41</v>
+        <v>53.35</v>
       </c>
       <c r="G62">
-        <v>46.17</v>
+        <v>48.31</v>
       </c>
       <c r="H62">
-        <v>56938</v>
+        <v>84944</v>
       </c>
       <c r="I62">
-        <v>268080492</v>
+        <v>427339049</v>
       </c>
       <c r="J62">
-        <v>4.61</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K62">
-        <v>-3.89</v>
+        <v>-5.59</v>
       </c>
       <c r="L62">
-        <v>-1.89</v>
+        <v>-2.88</v>
       </c>
       <c r="M62">
-        <v>24.35</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>301323</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>46.61</v>
+        <v>47.8</v>
       </c>
       <c r="E63">
-        <v>45.53</v>
+        <v>46.71</v>
       </c>
       <c r="F63">
-        <v>47.84</v>
+        <v>48.41</v>
       </c>
       <c r="G63">
-        <v>45.26</v>
+        <v>46.17</v>
       </c>
       <c r="H63">
-        <v>47963</v>
+        <v>56938</v>
       </c>
       <c r="I63">
-        <v>222392720</v>
+        <v>268080492</v>
       </c>
       <c r="J63">
-        <v>5.52</v>
+        <v>4.61</v>
       </c>
       <c r="K63">
-        <v>-2.53</v>
+        <v>-3.89</v>
       </c>
       <c r="L63">
-        <v>-1.18</v>
+        <v>-1.89</v>
       </c>
       <c r="M63">
-        <v>20.51</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>301323</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>45.56</v>
+        <v>46.61</v>
       </c>
       <c r="E64">
-        <v>46.49</v>
+        <v>45.53</v>
       </c>
       <c r="F64">
-        <v>47.1</v>
+        <v>47.84</v>
       </c>
       <c r="G64">
-        <v>45.53</v>
+        <v>45.26</v>
       </c>
       <c r="H64">
-        <v>36379</v>
+        <v>47963</v>
       </c>
       <c r="I64">
-        <v>168595839</v>
+        <v>222392720</v>
       </c>
       <c r="J64">
-        <v>3.45</v>
+        <v>5.52</v>
       </c>
       <c r="K64">
-        <v>2.11</v>
+        <v>-2.53</v>
       </c>
       <c r="L64">
-        <v>0.96</v>
+        <v>-1.18</v>
       </c>
       <c r="M64">
-        <v>15.56</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>301323</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>46</v>
+        <v>45.56</v>
       </c>
       <c r="E65">
-        <v>44.6</v>
+        <v>46.49</v>
       </c>
       <c r="F65">
-        <v>46.28</v>
+        <v>47.1</v>
       </c>
       <c r="G65">
-        <v>43.8</v>
+        <v>45.53</v>
       </c>
       <c r="H65">
-        <v>47155</v>
+        <v>36379</v>
       </c>
       <c r="I65">
-        <v>211142098</v>
+        <v>168595839</v>
       </c>
       <c r="J65">
-        <v>5.33</v>
+        <v>3.45</v>
       </c>
       <c r="K65">
-        <v>-4.07</v>
+        <v>2.11</v>
       </c>
       <c r="L65">
-        <v>-1.89</v>
+        <v>0.96</v>
       </c>
       <c r="M65">
-        <v>20.16</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>301323</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>44.2</v>
+        <v>46</v>
       </c>
       <c r="E66">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="F66">
-        <v>44.64</v>
+        <v>46.28</v>
       </c>
       <c r="G66">
-        <v>43.66</v>
+        <v>43.8</v>
       </c>
       <c r="H66">
-        <v>25288</v>
+        <v>47155</v>
       </c>
       <c r="I66">
-        <v>111750789</v>
+        <v>211142098</v>
       </c>
       <c r="J66">
-        <v>2.2</v>
+        <v>5.33</v>
       </c>
       <c r="K66">
-        <v>-0.45</v>
+        <v>-4.07</v>
       </c>
       <c r="L66">
-        <v>-0.2</v>
+        <v>-1.89</v>
       </c>
       <c r="M66">
-        <v>10.81</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>301323</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="E67">
-        <v>44.46</v>
+        <v>44.4</v>
       </c>
       <c r="F67">
-        <v>45.17</v>
+        <v>44.64</v>
       </c>
       <c r="G67">
-        <v>44.17</v>
+        <v>43.66</v>
       </c>
       <c r="H67">
-        <v>32871</v>
+        <v>25288</v>
       </c>
       <c r="I67">
-        <v>147079424</v>
+        <v>111750789</v>
       </c>
       <c r="J67">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K67">
-        <v>0.14</v>
+        <v>-0.45</v>
       </c>
       <c r="L67">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
       <c r="M67">
-        <v>14.06</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>301323</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>44.18</v>
+        <v>44.3</v>
       </c>
       <c r="E68">
-        <v>43.13</v>
+        <v>44.46</v>
       </c>
       <c r="F68">
-        <v>44.62</v>
+        <v>45.17</v>
       </c>
       <c r="G68">
-        <v>42.69</v>
+        <v>44.17</v>
       </c>
       <c r="H68">
-        <v>26686</v>
+        <v>32871</v>
       </c>
       <c r="I68">
-        <v>115796632</v>
+        <v>147079424</v>
       </c>
       <c r="J68">
-        <v>4.34</v>
+        <v>2.25</v>
       </c>
       <c r="K68">
-        <v>-2.99</v>
+        <v>0.14</v>
       </c>
       <c r="L68">
-        <v>-1.33</v>
+        <v>0.06</v>
       </c>
       <c r="M68">
-        <v>11.41</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>301323</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>43.01</v>
+        <v>44.18</v>
       </c>
       <c r="E69">
-        <v>43.55</v>
+        <v>43.13</v>
       </c>
       <c r="F69">
-        <v>43.91</v>
+        <v>44.62</v>
       </c>
       <c r="G69">
-        <v>42.67</v>
+        <v>42.69</v>
       </c>
       <c r="H69">
-        <v>22268</v>
+        <v>26686</v>
       </c>
       <c r="I69">
-        <v>96273325</v>
+        <v>115796632</v>
       </c>
       <c r="J69">
-        <v>2.88</v>
+        <v>4.34</v>
       </c>
       <c r="K69">
-        <v>0.97</v>
+        <v>-2.99</v>
       </c>
       <c r="L69">
-        <v>0.42</v>
+        <v>-1.33</v>
       </c>
       <c r="M69">
-        <v>9.52</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>301323</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>43.31</v>
+        <v>43.01</v>
       </c>
       <c r="E70">
-        <v>43.19</v>
+        <v>43.55</v>
       </c>
       <c r="F70">
-        <v>43.8</v>
+        <v>43.91</v>
       </c>
       <c r="G70">
-        <v>42.85</v>
+        <v>42.67</v>
       </c>
       <c r="H70">
-        <v>17253</v>
+        <v>22268</v>
       </c>
       <c r="I70">
-        <v>74710620</v>
+        <v>96273325</v>
       </c>
       <c r="J70">
-        <v>2.18</v>
+        <v>2.88</v>
       </c>
       <c r="K70">
-        <v>-0.83</v>
+        <v>0.97</v>
       </c>
       <c r="L70">
-        <v>-0.36</v>
+        <v>0.42</v>
       </c>
       <c r="M70">
-        <v>7.38</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>301323</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>43.31</v>
       </c>
       <c r="E71">
-        <v>42.62</v>
+        <v>43.19</v>
       </c>
       <c r="F71">
-        <v>43.44</v>
+        <v>43.8</v>
       </c>
       <c r="G71">
-        <v>42.15</v>
+        <v>42.85</v>
       </c>
       <c r="H71">
-        <v>20418</v>
+        <v>17253</v>
       </c>
       <c r="I71">
-        <v>86986062</v>
+        <v>74710620</v>
       </c>
       <c r="J71">
-        <v>2.99</v>
+        <v>2.18</v>
       </c>
       <c r="K71">
-        <v>-1.32</v>
+        <v>-0.83</v>
       </c>
       <c r="L71">
-        <v>-0.57</v>
+        <v>-0.36</v>
       </c>
       <c r="M71">
-        <v>8.73</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>301323</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>42.32</v>
+        <v>43</v>
       </c>
       <c r="E72">
-        <v>41.41</v>
+        <v>42.62</v>
       </c>
       <c r="F72">
-        <v>42.51</v>
+        <v>43.44</v>
       </c>
       <c r="G72">
-        <v>41.29</v>
+        <v>42.15</v>
       </c>
       <c r="H72">
-        <v>19330</v>
+        <v>20418</v>
       </c>
       <c r="I72">
-        <v>80788663</v>
+        <v>86986062</v>
       </c>
       <c r="J72">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="K72">
-        <v>-2.84</v>
+        <v>-1.32</v>
       </c>
       <c r="L72">
-        <v>-1.21</v>
+        <v>-0.57</v>
       </c>
       <c r="M72">
-        <v>8.27</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>301323</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>41.61</v>
+        <v>42.32</v>
       </c>
       <c r="E73">
-        <v>40.9</v>
+        <v>41.41</v>
       </c>
       <c r="F73">
-        <v>41.78</v>
+        <v>42.51</v>
       </c>
       <c r="G73">
-        <v>40.79</v>
+        <v>41.29</v>
       </c>
       <c r="H73">
-        <v>14213</v>
+        <v>19330</v>
       </c>
       <c r="I73">
-        <v>58328472</v>
+        <v>80788663</v>
       </c>
       <c r="J73">
-        <v>2.39</v>
+        <v>2.86</v>
       </c>
       <c r="K73">
-        <v>-1.23</v>
+        <v>-2.84</v>
       </c>
       <c r="L73">
-        <v>-0.51</v>
+        <v>-1.21</v>
       </c>
       <c r="M73">
-        <v>6.08</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>301323</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>40.72</v>
+        <v>41.61</v>
       </c>
       <c r="E74">
-        <v>41.24</v>
+        <v>40.9</v>
       </c>
       <c r="F74">
-        <v>41.8</v>
+        <v>41.78</v>
       </c>
       <c r="G74">
-        <v>40.41</v>
+        <v>40.79</v>
       </c>
       <c r="H74">
-        <v>14181</v>
+        <v>14213</v>
       </c>
       <c r="I74">
-        <v>58571762</v>
+        <v>58328472</v>
       </c>
       <c r="J74">
-        <v>3.4</v>
+        <v>2.39</v>
       </c>
       <c r="K74">
-        <v>0.83</v>
+        <v>-1.23</v>
       </c>
       <c r="L74">
-        <v>0.34</v>
+        <v>-0.51</v>
       </c>
       <c r="M74">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>301323</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>41.3</v>
+        <v>40.72</v>
       </c>
       <c r="E75">
-        <v>40.75</v>
+        <v>41.24</v>
       </c>
       <c r="F75">
-        <v>41.45</v>
+        <v>41.8</v>
       </c>
       <c r="G75">
-        <v>40.58</v>
+        <v>40.41</v>
       </c>
       <c r="H75">
-        <v>11257</v>
+        <v>14181</v>
       </c>
       <c r="I75">
-        <v>46043366</v>
+        <v>58571762</v>
       </c>
       <c r="J75">
-        <v>2.11</v>
+        <v>3.4</v>
       </c>
       <c r="K75">
-        <v>-1.19</v>
+        <v>0.83</v>
       </c>
       <c r="L75">
-        <v>-0.49</v>
+        <v>0.34</v>
       </c>
       <c r="M75">
-        <v>4.81</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>301323</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>40.76</v>
+        <v>41.3</v>
       </c>
       <c r="E76">
-        <v>40.79</v>
+        <v>40.75</v>
       </c>
       <c r="F76">
-        <v>41.49</v>
+        <v>41.45</v>
       </c>
       <c r="G76">
-        <v>40.5</v>
+        <v>40.58</v>
       </c>
       <c r="H76">
-        <v>10964</v>
+        <v>11257</v>
       </c>
       <c r="I76">
-        <v>44901664</v>
+        <v>46043366</v>
       </c>
       <c r="J76">
-        <v>2.43</v>
+        <v>2.11</v>
       </c>
       <c r="K76">
-        <v>0.1</v>
+        <v>-1.19</v>
       </c>
       <c r="L76">
-        <v>0.04</v>
+        <v>-0.49</v>
       </c>
       <c r="M76">
-        <v>4.69</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>301323</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>40.75</v>
+        <v>40.76</v>
       </c>
       <c r="E77">
-        <v>41.41</v>
+        <v>40.79</v>
       </c>
       <c r="F77">
-        <v>41.57</v>
+        <v>41.49</v>
       </c>
       <c r="G77">
-        <v>40.55</v>
+        <v>40.5</v>
       </c>
       <c r="H77">
-        <v>17779</v>
+        <v>10964</v>
       </c>
       <c r="I77">
-        <v>73280893</v>
+        <v>44901664</v>
       </c>
       <c r="J77">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="K77">
-        <v>1.52</v>
+        <v>0.1</v>
       </c>
       <c r="L77">
-        <v>0.62</v>
+        <v>0.04</v>
       </c>
       <c r="M77">
-        <v>7.6</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>301323</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>41.3</v>
+        <v>40.75</v>
       </c>
       <c r="E78">
-        <v>41.93</v>
+        <v>41.41</v>
       </c>
       <c r="F78">
-        <v>41.98</v>
+        <v>41.57</v>
       </c>
       <c r="G78">
-        <v>40.91</v>
+        <v>40.55</v>
       </c>
       <c r="H78">
-        <v>21214</v>
+        <v>17779</v>
       </c>
       <c r="I78">
-        <v>88188760</v>
+        <v>73280893</v>
       </c>
       <c r="J78">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="K78">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="L78">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="M78">
-        <v>9.07</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>301323</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>41.68</v>
+        <v>41.3</v>
       </c>
       <c r="E79">
-        <v>41.06</v>
+        <v>41.93</v>
       </c>
       <c r="F79">
-        <v>42.23</v>
+        <v>41.98</v>
       </c>
       <c r="G79">
-        <v>40.9</v>
+        <v>40.91</v>
       </c>
       <c r="H79">
-        <v>19554</v>
+        <v>21214</v>
       </c>
       <c r="I79">
-        <v>80843511</v>
+        <v>88188760</v>
       </c>
       <c r="J79">
-        <v>3.17</v>
+        <v>2.58</v>
       </c>
       <c r="K79">
-        <v>-2.07</v>
+        <v>1.26</v>
       </c>
       <c r="L79">
-        <v>-0.87</v>
+        <v>0.52</v>
       </c>
       <c r="M79">
-        <v>8.359999999999999</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>301323</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>40.93</v>
+        <v>41.68</v>
       </c>
       <c r="E80">
-        <v>40.69</v>
+        <v>41.06</v>
       </c>
       <c r="F80">
-        <v>41.3</v>
+        <v>42.23</v>
       </c>
       <c r="G80">
-        <v>40.16</v>
+        <v>40.9</v>
       </c>
       <c r="H80">
-        <v>13761</v>
+        <v>19554</v>
       </c>
       <c r="I80">
-        <v>55912827</v>
+        <v>80843511</v>
       </c>
       <c r="J80">
-        <v>2.78</v>
+        <v>3.17</v>
       </c>
       <c r="K80">
-        <v>-0.9</v>
+        <v>-2.07</v>
       </c>
       <c r="L80">
-        <v>-0.37</v>
+        <v>-0.87</v>
       </c>
       <c r="M80">
-        <v>5.88</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>301323</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>40.58</v>
+        <v>40.93</v>
       </c>
       <c r="E81">
-        <v>40.4</v>
+        <v>40.69</v>
       </c>
       <c r="F81">
-        <v>41.18</v>
+        <v>41.3</v>
       </c>
       <c r="G81">
-        <v>40.36</v>
+        <v>40.16</v>
       </c>
       <c r="H81">
-        <v>12092</v>
+        <v>13761</v>
       </c>
       <c r="I81">
-        <v>49257877</v>
+        <v>55912827</v>
       </c>
       <c r="J81">
-        <v>2.02</v>
+        <v>2.78</v>
       </c>
       <c r="K81">
-        <v>-0.71</v>
+        <v>-0.9</v>
       </c>
       <c r="L81">
-        <v>-0.29</v>
+        <v>-0.37</v>
       </c>
       <c r="M81">
-        <v>5.17</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>301323</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D82">
-        <v>40.42</v>
+        <v>40.58</v>
       </c>
       <c r="E82">
-        <v>41.14</v>
+        <v>40.4</v>
       </c>
       <c r="F82">
-        <v>41.41</v>
+        <v>41.18</v>
       </c>
       <c r="G82">
-        <v>40.38</v>
+        <v>40.36</v>
       </c>
       <c r="H82">
-        <v>13207</v>
+        <v>12092</v>
       </c>
       <c r="I82">
-        <v>54157762</v>
+        <v>49257877</v>
       </c>
       <c r="J82">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="K82">
-        <v>1.83</v>
+        <v>-0.71</v>
       </c>
       <c r="L82">
-        <v>0.74</v>
+        <v>-0.29</v>
       </c>
       <c r="M82">
-        <v>5.65</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>301323</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83">
+        <v>40.42</v>
+      </c>
+      <c r="E83">
         <v>41.14</v>
       </c>
-      <c r="E83">
-        <v>41.17</v>
-      </c>
       <c r="F83">
-        <v>41.38</v>
+        <v>41.41</v>
       </c>
       <c r="G83">
-        <v>40.71</v>
+        <v>40.38</v>
       </c>
       <c r="H83">
-        <v>9495</v>
+        <v>13207</v>
       </c>
       <c r="I83">
-        <v>38905756</v>
+        <v>54157762</v>
       </c>
       <c r="J83">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="K83">
-        <v>0.07000000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="L83">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
       <c r="M83">
-        <v>4.06</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>301323</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>41.1</v>
+        <v>41.14</v>
       </c>
       <c r="E84">
-        <v>41.5</v>
+        <v>41.17</v>
       </c>
       <c r="F84">
-        <v>41.6</v>
+        <v>41.38</v>
       </c>
       <c r="G84">
-        <v>41</v>
+        <v>40.71</v>
       </c>
       <c r="H84">
-        <v>12059</v>
+        <v>9495</v>
       </c>
       <c r="I84">
-        <v>49885595</v>
+        <v>38905756</v>
       </c>
       <c r="J84">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="K84">
-        <v>0.8</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L84">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="M84">
-        <v>5.16</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>301323</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D85">
-        <v>41.68</v>
+        <v>41.1</v>
       </c>
       <c r="E85">
-        <v>41.17</v>
+        <v>41.5</v>
       </c>
       <c r="F85">
-        <v>41.68</v>
+        <v>41.6</v>
       </c>
       <c r="G85">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>12258</v>
+        <v>12059</v>
       </c>
       <c r="I85">
-        <v>50429590</v>
+        <v>49885595</v>
       </c>
       <c r="J85">
-        <v>2.6</v>
+        <v>1.46</v>
       </c>
       <c r="K85">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="L85">
-        <v>-0.33</v>
+        <v>0.33</v>
       </c>
       <c r="M85">
-        <v>5.24</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>301323</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D86">
-        <v>41.3</v>
+        <v>41.68</v>
       </c>
       <c r="E86">
-        <v>41.11</v>
+        <v>41.17</v>
       </c>
       <c r="F86">
-        <v>41.43</v>
+        <v>41.68</v>
       </c>
       <c r="G86">
         <v>40.6</v>
       </c>
       <c r="H86">
-        <v>10446</v>
+        <v>12258</v>
       </c>
       <c r="I86">
-        <v>42734704</v>
+        <v>50429590</v>
       </c>
       <c r="J86">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="K86">
-        <v>-0.15</v>
+        <v>-0.8</v>
       </c>
       <c r="L86">
-        <v>-0.06</v>
+        <v>-0.33</v>
       </c>
       <c r="M86">
-        <v>4.47</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>301323</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D87">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="E87">
-        <v>39.87</v>
+        <v>41.11</v>
       </c>
       <c r="F87">
-        <v>41.05</v>
+        <v>41.43</v>
       </c>
       <c r="G87">
-        <v>39.78</v>
+        <v>40.6</v>
       </c>
       <c r="H87">
-        <v>15997</v>
+        <v>10446</v>
       </c>
       <c r="I87">
-        <v>64307471</v>
+        <v>42734704</v>
       </c>
       <c r="J87">
-        <v>3.09</v>
+        <v>2.02</v>
       </c>
       <c r="K87">
-        <v>-3.02</v>
+        <v>-0.15</v>
       </c>
       <c r="L87">
-        <v>-1.24</v>
+        <v>-0.06</v>
       </c>
       <c r="M87">
-        <v>6.84</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>301323</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>39.77</v>
+        <v>41</v>
       </c>
       <c r="E88">
-        <v>39.88</v>
+        <v>39.87</v>
       </c>
       <c r="F88">
-        <v>40.15</v>
+        <v>41.05</v>
       </c>
       <c r="G88">
-        <v>39.5</v>
+        <v>39.78</v>
       </c>
       <c r="H88">
-        <v>9039</v>
+        <v>15997</v>
       </c>
       <c r="I88">
-        <v>36044472</v>
+        <v>64307471</v>
       </c>
       <c r="J88">
-        <v>1.63</v>
+        <v>3.09</v>
       </c>
       <c r="K88">
-        <v>0.03</v>
+        <v>-3.02</v>
       </c>
       <c r="L88">
-        <v>0.01</v>
+        <v>-1.24</v>
       </c>
       <c r="M88">
-        <v>3.87</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>301323</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>39.82</v>
+        <v>39.77</v>
       </c>
       <c r="E89">
-        <v>39.16</v>
+        <v>39.88</v>
       </c>
       <c r="F89">
-        <v>39.86</v>
+        <v>40.15</v>
       </c>
       <c r="G89">
-        <v>39.1</v>
+        <v>39.5</v>
       </c>
       <c r="H89">
-        <v>8724</v>
+        <v>9039</v>
       </c>
       <c r="I89">
-        <v>34331129</v>
+        <v>36044472</v>
       </c>
       <c r="J89">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="K89">
-        <v>-1.81</v>
+        <v>0.03</v>
       </c>
       <c r="L89">
-        <v>-0.72</v>
+        <v>0.01</v>
       </c>
       <c r="M89">
-        <v>3.73</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>301323</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>38.95</v>
+        <v>39.82</v>
       </c>
       <c r="E90">
-        <v>38.06</v>
+        <v>39.16</v>
       </c>
       <c r="F90">
-        <v>38.95</v>
+        <v>39.86</v>
       </c>
       <c r="G90">
-        <v>38</v>
+        <v>39.1</v>
       </c>
       <c r="H90">
-        <v>11245</v>
+        <v>8724</v>
       </c>
       <c r="I90">
-        <v>42993961</v>
+        <v>34331129</v>
       </c>
       <c r="J90">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="K90">
-        <v>-2.81</v>
+        <v>-1.81</v>
       </c>
       <c r="L90">
-        <v>-1.1</v>
+        <v>-0.72</v>
       </c>
       <c r="M90">
-        <v>4.81</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>301323</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D91">
-        <v>37.96</v>
+        <v>38.95</v>
       </c>
       <c r="E91">
-        <v>38.32</v>
+        <v>38.06</v>
       </c>
       <c r="F91">
-        <v>39.26</v>
+        <v>38.95</v>
       </c>
       <c r="G91">
-        <v>37.86</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>10120</v>
+        <v>11245</v>
       </c>
       <c r="I91">
-        <v>39010682</v>
+        <v>42993961</v>
       </c>
       <c r="J91">
-        <v>3.68</v>
+        <v>2.43</v>
       </c>
       <c r="K91">
-        <v>0.68</v>
+        <v>-2.81</v>
       </c>
       <c r="L91">
-        <v>0.26</v>
+        <v>-1.1</v>
       </c>
       <c r="M91">
-        <v>4.33</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>301323</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D92">
-        <v>38</v>
+        <v>37.96</v>
       </c>
       <c r="E92">
-        <v>37.99</v>
+        <v>38.32</v>
       </c>
       <c r="F92">
-        <v>38.78</v>
+        <v>39.26</v>
       </c>
       <c r="G92">
-        <v>37.83</v>
+        <v>37.86</v>
       </c>
       <c r="H92">
-        <v>8424</v>
+        <v>10120</v>
       </c>
       <c r="I92">
-        <v>32155818</v>
+        <v>39010682</v>
       </c>
       <c r="J92">
-        <v>2.48</v>
+        <v>3.68</v>
       </c>
       <c r="K92">
-        <v>-0.86</v>
+        <v>0.68</v>
       </c>
       <c r="L92">
-        <v>-0.33</v>
+        <v>0.26</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>301323</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D93">
-        <v>37.86</v>
+        <v>38</v>
       </c>
       <c r="E93">
-        <v>36.12</v>
+        <v>37.99</v>
       </c>
       <c r="F93">
-        <v>37.86</v>
+        <v>38.78</v>
       </c>
       <c r="G93">
-        <v>35.87</v>
+        <v>37.83</v>
       </c>
       <c r="H93">
-        <v>12662</v>
+        <v>8424</v>
       </c>
       <c r="I93">
-        <v>46262081</v>
+        <v>32155818</v>
       </c>
       <c r="J93">
-        <v>5.24</v>
+        <v>2.48</v>
       </c>
       <c r="K93">
-        <v>-4.92</v>
+        <v>-0.86</v>
       </c>
       <c r="L93">
-        <v>-1.87</v>
+        <v>-0.33</v>
       </c>
       <c r="M93">
-        <v>5.41</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>301323</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D94">
+        <v>37.86</v>
+      </c>
+      <c r="E94">
         <v>36.12</v>
       </c>
-      <c r="E94">
-        <v>38.03</v>
-      </c>
       <c r="F94">
-        <v>38.19</v>
+        <v>37.86</v>
       </c>
       <c r="G94">
-        <v>36.12</v>
+        <v>35.87</v>
       </c>
       <c r="H94">
-        <v>15094</v>
+        <v>12662</v>
       </c>
       <c r="I94">
-        <v>56547012</v>
+        <v>46262081</v>
       </c>
       <c r="J94">
-        <v>5.73</v>
+        <v>5.24</v>
       </c>
       <c r="K94">
-        <v>5.29</v>
+        <v>-4.92</v>
       </c>
       <c r="L94">
-        <v>1.91</v>
+        <v>-1.87</v>
       </c>
       <c r="M94">
-        <v>6.45</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>301323</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D95">
-        <v>38.1</v>
+        <v>36.12</v>
       </c>
       <c r="E95">
-        <v>38.01</v>
+        <v>38.03</v>
       </c>
       <c r="F95">
-        <v>38.37</v>
+        <v>38.19</v>
       </c>
       <c r="G95">
-        <v>37.73</v>
+        <v>36.12</v>
       </c>
       <c r="H95">
-        <v>8205</v>
+        <v>15094</v>
       </c>
       <c r="I95">
-        <v>31200437</v>
+        <v>56547012</v>
       </c>
       <c r="J95">
-        <v>1.68</v>
+        <v>5.73</v>
       </c>
       <c r="K95">
-        <v>-0.05</v>
+        <v>5.29</v>
       </c>
       <c r="L95">
-        <v>-0.02</v>
+        <v>1.91</v>
       </c>
       <c r="M95">
-        <v>3.51</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>301323</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D96">
-        <v>37.5</v>
+        <v>38.1</v>
       </c>
       <c r="E96">
-        <v>38.29</v>
+        <v>38.01</v>
       </c>
       <c r="F96">
-        <v>38.35</v>
+        <v>38.37</v>
       </c>
       <c r="G96">
-        <v>37.42</v>
+        <v>37.73</v>
       </c>
       <c r="H96">
-        <v>7436</v>
+        <v>8205</v>
       </c>
       <c r="I96">
-        <v>28165469</v>
+        <v>31200437</v>
       </c>
       <c r="J96">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="K96">
-        <v>0.74</v>
+        <v>-0.05</v>
       </c>
       <c r="L96">
-        <v>0.28</v>
+        <v>-0.02</v>
       </c>
       <c r="M96">
-        <v>3.18</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>301323</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D97">
-        <v>39.34</v>
+        <v>37.5</v>
       </c>
       <c r="E97">
-        <v>39.62</v>
+        <v>38.29</v>
       </c>
       <c r="F97">
-        <v>39.86</v>
+        <v>38.35</v>
       </c>
       <c r="G97">
-        <v>38.44</v>
+        <v>37.42</v>
       </c>
       <c r="H97">
-        <v>17345</v>
+        <v>7436</v>
       </c>
       <c r="I97">
-        <v>68038355</v>
+        <v>28165469</v>
       </c>
       <c r="J97">
-        <v>3.71</v>
+        <v>2.45</v>
       </c>
       <c r="K97">
-        <v>3.47</v>
+        <v>0.74</v>
       </c>
       <c r="L97">
-        <v>1.33</v>
+        <v>0.28</v>
       </c>
       <c r="M97">
-        <v>7.42</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>301323</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D98">
-        <v>39.2</v>
+        <v>39.34</v>
       </c>
       <c r="E98">
-        <v>40.17</v>
+        <v>39.62</v>
       </c>
       <c r="F98">
-        <v>40.34</v>
+        <v>39.86</v>
       </c>
       <c r="G98">
-        <v>39.07</v>
+        <v>38.44</v>
       </c>
       <c r="H98">
-        <v>11120</v>
+        <v>17345</v>
       </c>
       <c r="I98">
-        <v>44464297</v>
+        <v>68038355</v>
       </c>
       <c r="J98">
-        <v>3.21</v>
+        <v>3.71</v>
       </c>
       <c r="K98">
-        <v>1.39</v>
+        <v>3.47</v>
       </c>
       <c r="L98">
-        <v>0.55</v>
+        <v>1.33</v>
       </c>
       <c r="M98">
-        <v>4.76</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>301323</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D99">
-        <v>40</v>
+        <v>39.2</v>
       </c>
       <c r="E99">
-        <v>40.05</v>
+        <v>40.17</v>
       </c>
       <c r="F99">
-        <v>40.5</v>
+        <v>40.34</v>
       </c>
       <c r="G99">
-        <v>39.91</v>
+        <v>39.07</v>
       </c>
       <c r="H99">
-        <v>9449</v>
+        <v>11120</v>
       </c>
       <c r="I99">
-        <v>37986015</v>
+        <v>44464297</v>
       </c>
       <c r="J99">
-        <v>1.47</v>
+        <v>3.21</v>
       </c>
       <c r="K99">
-        <v>-0.3</v>
+        <v>1.39</v>
       </c>
       <c r="L99">
-        <v>-0.12</v>
+        <v>0.55</v>
       </c>
       <c r="M99">
-        <v>4.04</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>301323</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="E100">
         <v>40.05</v>
       </c>
-      <c r="E100">
-        <v>40.2</v>
-      </c>
       <c r="F100">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="G100">
-        <v>39.59</v>
+        <v>39.91</v>
       </c>
       <c r="H100">
-        <v>10205</v>
+        <v>9449</v>
       </c>
       <c r="I100">
-        <v>41034183</v>
+        <v>37986015</v>
       </c>
       <c r="J100">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="K100">
-        <v>0.37</v>
+        <v>-0.3</v>
       </c>
       <c r="L100">
-        <v>0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="M100">
-        <v>4.36</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>301323</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D101">
-        <v>40.13</v>
+        <v>40.05</v>
       </c>
       <c r="E101">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="F101">
-        <v>40.41</v>
+        <v>40.6</v>
       </c>
       <c r="G101">
-        <v>39.4</v>
+        <v>39.59</v>
       </c>
       <c r="H101">
-        <v>9012</v>
+        <v>10205</v>
       </c>
       <c r="I101">
-        <v>35838788</v>
+        <v>41034183</v>
       </c>
       <c r="J101">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="K101">
-        <v>-1.49</v>
+        <v>0.37</v>
       </c>
       <c r="L101">
-        <v>-0.6</v>
+        <v>0.15</v>
       </c>
       <c r="M101">
-        <v>3.85</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>301323</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D102">
+        <v>40.13</v>
+      </c>
+      <c r="E102">
+        <v>39.6</v>
+      </c>
+      <c r="F102">
+        <v>40.41</v>
+      </c>
+      <c r="G102">
+        <v>39.4</v>
+      </c>
+      <c r="H102">
+        <v>9012</v>
+      </c>
+      <c r="I102">
+        <v>35838788</v>
+      </c>
+      <c r="J102">
+        <v>2.51</v>
+      </c>
+      <c r="K102">
+        <v>-1.49</v>
+      </c>
+      <c r="L102">
+        <v>-0.6</v>
+      </c>
+      <c r="M102">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>301323</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103">
         <v>39.63</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>40.05</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>40.38</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>39.63</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <v>8156</v>
       </c>
-      <c r="I102">
+      <c r="I103">
         <v>32754520.76</v>
       </c>
-      <c r="J102">
+      <c r="J103">
         <v>1.89</v>
       </c>
-      <c r="K102">
+      <c r="K103">
         <v>1.14</v>
       </c>
-      <c r="L102">
+      <c r="L103">
         <v>0.45</v>
       </c>
-      <c r="M102">
+      <c r="M103">
         <v>3.49</v>
       </c>
     </row>
